--- a/version 1 - QMK Proton C/modified_1800_v1 switch matrix.xlsx
+++ b/version 1 - QMK Proton C/modified_1800_v1 switch matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
   <si>
     <t xml:space="preserve">Microcontroller needs 24 signal pins minimum</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t xml:space="preserve">NUM0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annotation map in kicad schematic (MX#/D#)</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -410,10 +413,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -500,9 +499,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>216360</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -516,7 +515,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9553680" cy="3469680"/>
+          <a:ext cx="9564120" cy="3469320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -536,15 +535,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A8:T30"/>
+  <dimension ref="A8:T41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J51" activeCellId="0" sqref="J51"/>
+      <selection pane="topLeft" activeCell="W37" activeCellId="0" sqref="W37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="1" style="0" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="1" style="0" width="7.8"/>
   </cols>
   <sheetData>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -870,7 +869,7 @@
       <c r="S28" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="T28" s="7" t="s">
+      <c r="T28" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -976,10 +975,483 @@
       </c>
       <c r="T30" s="6"/>
     </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G35" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H35" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I35" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J35" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K35" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="L35" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="M35" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N35" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O35" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="P35" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q35" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="R35" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="S35" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="T35" s="4" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I36" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J36" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K36" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="L36" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M36" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="N36" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="O36" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="P36" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q36" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="R36" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="S36" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="T36" s="5" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D37" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F37" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="G37" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="I37" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J37" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="K37" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="L37" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="M37" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="N37" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="O37" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="P37" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q37" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="R37" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="S37" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="T37" s="5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="F38" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="I38" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="J38" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="K38" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="L38" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="M38" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="N38" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="O38" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="P38" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="R38" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="S38" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="T38" s="5" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D39" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="F39" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="G39" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="H39" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="I39" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="J39" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="K39" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="L39" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="M39" s="5" t="n">
+        <v>65</v>
+      </c>
+      <c r="N39" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="O39" s="6"/>
+      <c r="P39" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q39" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="R39" s="5" t="n">
+        <v>69</v>
+      </c>
+      <c r="S39" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="T39" s="5" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>72</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F40" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="I40" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="J40" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="K40" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="L40" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="M40" s="5" t="n">
+        <v>82</v>
+      </c>
+      <c r="N40" s="5" t="n">
+        <v>83</v>
+      </c>
+      <c r="O40" s="6"/>
+      <c r="P40" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="Q40" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="R40" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="S40" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="T40" s="5" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="5" t="n">
+        <v>93</v>
+      </c>
+      <c r="M41" s="5" t="n">
+        <v>94</v>
+      </c>
+      <c r="N41" s="5" t="n">
+        <v>95</v>
+      </c>
+      <c r="O41" s="6"/>
+      <c r="P41" s="5" t="n">
+        <v>96</v>
+      </c>
+      <c r="Q41" s="5" t="n">
+        <v>97</v>
+      </c>
+      <c r="R41" s="6"/>
+      <c r="S41" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="T41" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="C23:T23"/>
     <mergeCell ref="A25:A30"/>
+    <mergeCell ref="A32:T33"/>
+    <mergeCell ref="C34:T34"/>
+    <mergeCell ref="A36:A41"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/version 1 - QMK Proton C/modified_1800_v1 switch matrix.xlsx
+++ b/version 1 - QMK Proton C/modified_1800_v1 switch matrix.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="100">
   <si>
     <t xml:space="preserve">Microcontroller needs 24 signal pins minimum</t>
   </si>
@@ -290,6 +290,33 @@
   </si>
   <si>
     <t xml:space="preserve">NUM0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key sizes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.75U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2Uvert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.25U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.25U</t>
   </si>
   <si>
     <t xml:space="preserve">Annotation map in kicad schematic (MX#/D#)</t>
@@ -535,10 +562,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A8:T41"/>
+  <dimension ref="A8:T52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W37" activeCellId="0" sqref="W37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X24" activeCellId="0" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1110,59 +1137,59 @@
       <c r="B36" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="C36" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D36" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F36" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G36" s="5" t="n">
-        <v>5</v>
-      </c>
-      <c r="H36" s="5" t="n">
-        <v>6</v>
-      </c>
-      <c r="I36" s="5" t="n">
-        <v>7</v>
-      </c>
-      <c r="J36" s="5" t="n">
-        <v>8</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>9</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>11</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>12</v>
-      </c>
-      <c r="O36" s="5" t="n">
-        <v>13</v>
-      </c>
-      <c r="P36" s="5" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q36" s="5" t="n">
-        <v>15</v>
-      </c>
-      <c r="R36" s="5" t="n">
-        <v>16</v>
-      </c>
-      <c r="S36" s="5" t="n">
-        <v>17</v>
-      </c>
-      <c r="T36" s="5" t="n">
-        <v>18</v>
+      <c r="C36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,59 +1197,59 @@
       <c r="B37" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D37" s="5" t="n">
-        <v>20</v>
-      </c>
-      <c r="E37" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="F37" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="G37" s="5" t="n">
-        <v>23</v>
-      </c>
-      <c r="H37" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="I37" s="5" t="n">
-        <v>25</v>
-      </c>
-      <c r="J37" s="5" t="n">
-        <v>26</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>27</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>28</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>29</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="O37" s="5" t="n">
-        <v>31</v>
-      </c>
-      <c r="P37" s="5" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q37" s="5" t="n">
-        <v>33</v>
-      </c>
-      <c r="R37" s="5" t="n">
-        <v>34</v>
-      </c>
-      <c r="S37" s="5" t="n">
-        <v>35</v>
-      </c>
-      <c r="T37" s="5" t="n">
-        <v>36</v>
+      <c r="C37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1230,59 +1257,59 @@
       <c r="B38" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C38" s="5" t="n">
-        <v>37</v>
-      </c>
-      <c r="D38" s="5" t="n">
-        <v>38</v>
-      </c>
-      <c r="E38" s="5" t="n">
-        <v>39</v>
-      </c>
-      <c r="F38" s="5" t="n">
-        <v>40</v>
-      </c>
-      <c r="G38" s="5" t="n">
-        <v>41</v>
-      </c>
-      <c r="H38" s="5" t="n">
-        <v>42</v>
-      </c>
-      <c r="I38" s="5" t="n">
-        <v>43</v>
-      </c>
-      <c r="J38" s="5" t="n">
-        <v>44</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>45</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>46</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>47</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>48</v>
-      </c>
-      <c r="O38" s="5" t="n">
-        <v>49</v>
-      </c>
-      <c r="P38" s="5" t="n">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="5" t="n">
-        <v>51</v>
-      </c>
-      <c r="R38" s="5" t="n">
-        <v>52</v>
-      </c>
-      <c r="S38" s="5" t="n">
-        <v>53</v>
-      </c>
-      <c r="T38" s="5" t="n">
-        <v>54</v>
+      <c r="C38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,57 +1317,57 @@
       <c r="B39" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="C39" s="5" t="n">
-        <v>55</v>
-      </c>
-      <c r="D39" s="5" t="n">
-        <v>56</v>
-      </c>
-      <c r="E39" s="5" t="n">
-        <v>57</v>
-      </c>
-      <c r="F39" s="5" t="n">
-        <v>58</v>
-      </c>
-      <c r="G39" s="5" t="n">
-        <v>59</v>
-      </c>
-      <c r="H39" s="5" t="n">
-        <v>60</v>
-      </c>
-      <c r="I39" s="5" t="n">
-        <v>61</v>
-      </c>
-      <c r="J39" s="5" t="n">
-        <v>62</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>63</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>64</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>65</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>66</v>
+      <c r="C39" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="O39" s="6"/>
-      <c r="P39" s="5" t="n">
-        <v>67</v>
-      </c>
-      <c r="Q39" s="5" t="n">
-        <v>68</v>
-      </c>
-      <c r="R39" s="5" t="n">
-        <v>69</v>
-      </c>
-      <c r="S39" s="5" t="n">
-        <v>70</v>
-      </c>
-      <c r="T39" s="5" t="n">
-        <v>71</v>
+      <c r="P39" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1348,57 +1375,57 @@
       <c r="B40" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="C40" s="5" t="n">
-        <v>72</v>
-      </c>
-      <c r="D40" s="5" t="n">
-        <v>73</v>
-      </c>
-      <c r="E40" s="5" t="n">
-        <v>74</v>
-      </c>
-      <c r="F40" s="5" t="n">
-        <v>75</v>
-      </c>
-      <c r="G40" s="5" t="n">
-        <v>76</v>
-      </c>
-      <c r="H40" s="5" t="n">
-        <v>77</v>
-      </c>
-      <c r="I40" s="5" t="n">
-        <v>78</v>
-      </c>
-      <c r="J40" s="5" t="n">
-        <v>79</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>80</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>81</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>82</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>83</v>
+      <c r="C40" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="O40" s="6"/>
-      <c r="P40" s="5" t="n">
-        <v>84</v>
-      </c>
-      <c r="Q40" s="5" t="n">
-        <v>85</v>
-      </c>
-      <c r="R40" s="5" t="n">
-        <v>86</v>
-      </c>
-      <c r="S40" s="5" t="n">
-        <v>87</v>
-      </c>
-      <c r="T40" s="5" t="n">
-        <v>88</v>
+      <c r="P40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1406,52 +1433,525 @@
       <c r="B41" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C41" s="5" t="n">
-        <v>89</v>
-      </c>
-      <c r="D41" s="5" t="n">
-        <v>90</v>
-      </c>
-      <c r="E41" s="5" t="n">
-        <v>91</v>
+      <c r="C41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="5" t="n">
-        <v>92</v>
+      <c r="H41" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
-      <c r="L41" s="5" t="n">
+      <c r="L41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O41" s="6"/>
+      <c r="P41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R41" s="6"/>
+      <c r="S41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T41" s="6"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="5"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I46" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J46" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="K46" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="L46" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="M46" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N46" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O46" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="P46" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q46" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="R46" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="S46" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="T46" s="4" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G47" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I47" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J47" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K47" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="L47" s="5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M47" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="N47" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="O47" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="P47" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q47" s="5" t="n">
+        <v>15</v>
+      </c>
+      <c r="R47" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="S47" s="5" t="n">
+        <v>17</v>
+      </c>
+      <c r="T47" s="5" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D48" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F48" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>23</v>
+      </c>
+      <c r="H48" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="I48" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="J48" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="K48" s="5" t="n">
+        <v>27</v>
+      </c>
+      <c r="L48" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="M48" s="5" t="n">
+        <v>29</v>
+      </c>
+      <c r="N48" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="O48" s="5" t="n">
+        <v>31</v>
+      </c>
+      <c r="P48" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q48" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="R48" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="S48" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="T48" s="5" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D49" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="E49" s="5" t="n">
+        <v>39</v>
+      </c>
+      <c r="F49" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="G49" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="H49" s="5" t="n">
+        <v>42</v>
+      </c>
+      <c r="I49" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="J49" s="5" t="n">
+        <v>44</v>
+      </c>
+      <c r="K49" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="L49" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="M49" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="N49" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="O49" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="P49" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q49" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="R49" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="S49" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="T49" s="5" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D50" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="E50" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="F50" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="H50" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="I50" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="J50" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="K50" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="L50" s="5" t="n">
+        <v>64</v>
+      </c>
+      <c r="M50" s="5" t="n">
+        <v>65</v>
+      </c>
+      <c r="N50" s="5" t="n">
+        <v>66</v>
+      </c>
+      <c r="O50" s="6"/>
+      <c r="P50" s="5" t="n">
+        <v>67</v>
+      </c>
+      <c r="Q50" s="5" t="n">
+        <v>68</v>
+      </c>
+      <c r="R50" s="5" t="n">
+        <v>69</v>
+      </c>
+      <c r="S50" s="5" t="n">
+        <v>70</v>
+      </c>
+      <c r="T50" s="5" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C51" s="5" t="n">
+        <v>72</v>
+      </c>
+      <c r="D51" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>74</v>
+      </c>
+      <c r="F51" s="5" t="n">
+        <v>75</v>
+      </c>
+      <c r="G51" s="5" t="n">
+        <v>76</v>
+      </c>
+      <c r="H51" s="5" t="n">
+        <v>77</v>
+      </c>
+      <c r="I51" s="5" t="n">
+        <v>78</v>
+      </c>
+      <c r="J51" s="5" t="n">
+        <v>79</v>
+      </c>
+      <c r="K51" s="5" t="n">
+        <v>80</v>
+      </c>
+      <c r="L51" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="M51" s="5" t="n">
+        <v>82</v>
+      </c>
+      <c r="N51" s="5" t="n">
+        <v>83</v>
+      </c>
+      <c r="O51" s="6"/>
+      <c r="P51" s="5" t="n">
+        <v>84</v>
+      </c>
+      <c r="Q51" s="5" t="n">
+        <v>85</v>
+      </c>
+      <c r="R51" s="5" t="n">
+        <v>86</v>
+      </c>
+      <c r="S51" s="5" t="n">
+        <v>87</v>
+      </c>
+      <c r="T51" s="5" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" s="5" t="n">
+        <v>89</v>
+      </c>
+      <c r="D52" s="5" t="n">
+        <v>90</v>
+      </c>
+      <c r="E52" s="5" t="n">
+        <v>91</v>
+      </c>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="5" t="n">
+        <v>92</v>
+      </c>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="5" t="n">
         <v>93</v>
       </c>
-      <c r="M41" s="5" t="n">
+      <c r="M52" s="5" t="n">
         <v>94</v>
       </c>
-      <c r="N41" s="5" t="n">
+      <c r="N52" s="5" t="n">
         <v>95</v>
       </c>
-      <c r="O41" s="6"/>
-      <c r="P41" s="5" t="n">
+      <c r="O52" s="6"/>
+      <c r="P52" s="5" t="n">
         <v>96</v>
       </c>
-      <c r="Q41" s="5" t="n">
+      <c r="Q52" s="5" t="n">
         <v>97</v>
       </c>
-      <c r="R41" s="6"/>
-      <c r="S41" s="5" t="n">
+      <c r="R52" s="6"/>
+      <c r="S52" s="5" t="n">
         <v>98</v>
       </c>
-      <c r="T41" s="6"/>
+      <c r="T52" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
     <mergeCell ref="C23:T23"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="A32:T33"/>
     <mergeCell ref="C34:T34"/>
     <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A43:T44"/>
+    <mergeCell ref="C45:T45"/>
+    <mergeCell ref="A47:A52"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
